--- a/Hcard配置表/dict_event.xlsx
+++ b/Hcard配置表/dict_event.xlsx
@@ -697,10 +697,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -720,19 +720,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -749,7 +743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,7 +751,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,38 +780,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,6 +817,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -832,25 +840,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,7 +884,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,61 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,67 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,7 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,6 +1121,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1143,13 +1154,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,15 +1202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1192,30 +1216,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1224,10 +1224,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1236,133 +1236,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3277,7 +3277,7 @@
             <v>event_common_desc18</v>
           </cell>
           <cell r="P19" t="str">
-            <v>【情调】该事件必定成功</v>
+            <v>【情调】该事件完成后会清除场上全部一般事件</v>
           </cell>
           <cell r="Q19" t="str">
             <v>event_desc_SP18</v>
@@ -3396,7 +3396,7 @@
             <v>event_desc_SP20</v>
           </cell>
           <cell r="R21" t="str">
-            <v>只要该事件存在场上，每个检定都得到奖励骰</v>
+            <v>只要该事件存在场上，每个检定结果-2</v>
           </cell>
           <cell r="S21" t="str">
             <v>event_result_desc20</v>
@@ -3669,19 +3669,19 @@
             <v>event_name28</v>
           </cell>
           <cell r="L29" t="str">
-            <v>更进一步</v>
+            <v>水声</v>
           </cell>
           <cell r="M29" t="str">
             <v>event_desc28</v>
           </cell>
           <cell r="N29" t="str">
-            <v>她从座位上起身，神秘兮兮地拉着你离开桌旁，宣布现在将要兑现那份“神秘的奖励”。</v>
+            <v>尽管此刻你与洛璃仅有一墙之隔，能够回应心中这份躁动的只有水声。</v>
           </cell>
           <cell r="O29" t="str">
             <v>event_common_desc28</v>
           </cell>
           <cell r="P29" t="str">
-            <v>打入任意卡牌以进入下一阶段</v>
+            <v>无法打入卡牌。该事件结束后会清除场上全部一般事件。</v>
           </cell>
           <cell r="Q29" t="str">
             <v>event_desc_SP28</v>
@@ -3735,7 +3735,7 @@
             <v>event_name30</v>
           </cell>
           <cell r="L31" t="str">
-            <v>转化2</v>
+            <v>回应期待</v>
           </cell>
           <cell r="M31" t="str">
             <v>event_desc30</v>
@@ -3797,15 +3797,13 @@
           <cell r="K33" t="str">
             <v>event_name32</v>
           </cell>
-          <cell r="L33" t="str">
-            <v>热情洋溢</v>
-          </cell>
+        </row>
+        <row r="33">
           <cell r="M33" t="str">
             <v>event_desc32</v>
           </cell>
-          <cell r="N33" t="str">
-            <v>火热的气氛已经在不知不觉间环绕着你们，无论是你还是她都开始期待着更加热切的举动。</v>
-          </cell>
+        </row>
+        <row r="33">
           <cell r="O33" t="str">
             <v>event_common_desc32</v>
           </cell>
@@ -5953,7 +5951,7 @@
   <sheetPr/>
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
@@ -6815,7 +6813,7 @@
       </c>
       <c r="D19" s="8" t="str">
         <f>VLOOKUP(G19,[3]Sheet1!$M:R,4,FALSE)</f>
-        <v>【情调】该事件必定成功</v>
+        <v>【情调】该事件完成后会清除场上全部一般事件</v>
       </c>
       <c r="E19" s="8">
         <f>VLOOKUP(G19,[3]Sheet1!$M:T,6,FALSE)</f>
@@ -6915,7 +6913,7 @@
       </c>
       <c r="E21" s="8" t="str">
         <f>VLOOKUP(G21,[3]Sheet1!$M:T,6,FALSE)</f>
-        <v>只要该事件存在场上，每个检定都得到奖励骰</v>
+        <v>只要该事件存在场上，每个检定结果-2</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>94</v>
@@ -7257,15 +7255,15 @@
       </c>
       <c r="B29" s="8" t="str">
         <f>VLOOKUP(F29,[3]Sheet1!$K:$L,2,FALSE)</f>
-        <v>更进一步</v>
+        <v>水声</v>
       </c>
       <c r="C29" s="8" t="str">
         <f>VLOOKUP(G29,[3]Sheet1!$M:N,2,FALSE)</f>
-        <v>她从座位上起身，神秘兮兮地拉着你离开桌旁，宣布现在将要兑现那份“神秘的奖励”。</v>
+        <v>尽管此刻你与洛璃仅有一墙之隔，能够回应心中这份躁动的只有水声。</v>
       </c>
       <c r="D29" s="8" t="str">
         <f>VLOOKUP(G29,[3]Sheet1!$M:R,4,FALSE)</f>
-        <v>打入任意卡牌以进入下一阶段</v>
+        <v>无法打入卡牌。该事件结束后会清除场上全部一般事件。</v>
       </c>
       <c r="E29" s="8">
         <f>VLOOKUP(A29,[3]Sheet1!$A:$J,10,FALSE)</f>
@@ -7338,7 +7336,7 @@
       </c>
       <c r="B31" s="8" t="str">
         <f>VLOOKUP(F31,[3]Sheet1!$K:$L,2,FALSE)</f>
-        <v>转化2</v>
+        <v>回应期待</v>
       </c>
       <c r="C31" s="8" t="str">
         <f>VLOOKUP(G31,[3]Sheet1!$M:N,2,FALSE)</f>
@@ -7405,13 +7403,13 @@
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="8">
         <f>VLOOKUP(F33,[3]Sheet1!$K:$L,2,FALSE)</f>
-        <v>热情洋溢</v>
-      </c>
-      <c r="C33" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
         <f>VLOOKUP(G33,[3]Sheet1!$M:N,2,FALSE)</f>
-        <v>火热的气氛已经在不知不觉间环绕着你们，无论是你还是她都开始期待着更加热切的举动。</v>
+        <v>0</v>
       </c>
       <c r="D33" s="8">
         <f>VLOOKUP(G33,[3]Sheet1!$M:R,4,FALSE)</f>

--- a/Hcard配置表/dict_event.xlsx
+++ b/Hcard配置表/dict_event.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dict_event" sheetId="1" r:id="rId1"/>
@@ -697,10 +697,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -719,18 +719,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,6 +735,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -749,9 +803,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,60 +818,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,31 +833,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,7 +884,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,13 +998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,25 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,79 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,37 +1052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,59 +1121,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,6 +1152,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1216,6 +1175,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1224,10 +1224,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1236,16 +1236,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,115 +1254,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,13 +1583,16 @@
           <cell r="A14">
             <v>13</v>
           </cell>
+          <cell r="B14" t="b">
+            <v>1</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15">
             <v>14</v>
           </cell>
           <cell r="B15" t="str">
-            <v>当卡牌使用结束时0</v>
+            <v>当卡牌使用成功时大成功时</v>
           </cell>
         </row>
         <row r="16">
@@ -1597,15 +1600,15 @@
             <v>15</v>
           </cell>
           <cell r="B16" t="str">
-            <v>当回合结束时大成功时</v>
+            <v>当回合结束时回合结束时</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
             <v>16</v>
           </cell>
-          <cell r="B17" t="e">
-            <v>#N/A</v>
+          <cell r="B17" t="str">
+            <v>当打入卡牌时只能打入不能使用的卡牌</v>
           </cell>
         </row>
         <row r="18">
@@ -5951,8 +5954,8 @@
   <sheetPr/>
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="58" customHeight="1"/>
